--- a/biology/Histoire de la zoologie et de la botanique/Robert_Buser/Robert_Buser.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Buser/Robert_Buser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Buser est un botaniste suisse, né le 6 octobre 1857 à Aarau et mort le 29 mars 1931 à Genève.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université de Zurich en 1877. De 1884 à 1924, il est le conservateur des herbiers d’Alphonse Louis Pierre Pyrame de Candolle à Genève. En 1897, à l'âge de quarante ans, il épouse Charlotte Henriette Adèle Testuz. Vers la fin de sa vie, il est atteint de cécité.
 Il s'intéresse particulièrement aux alchémilles dont il décrit plusieurs nouvelles espèces. En plus du genre Alchemilla, il a travaillé sur divers genres dont Potentilla, Rosa, Androsace, Campanula et Salix. Il est l'auteur d'un supplément à Flora orientalis de Pierre Edmond Boissier.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Robert Buser » (voir la liste des auteurs).</t>
         </is>
